--- a/output/table_estimates_education_Break-even.xlsx
+++ b/output/table_estimates_education_Break-even.xlsx
@@ -465,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.03031989532410838</v>
+        <v>-0.1042799128104866</v>
       </c>
       <c r="C2">
-        <v>0.03514004421169987</v>
+        <v>0.03477527749921838</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.4920139639636682</v>
+        <v>-0.2484471677855903</v>
       </c>
       <c r="C3">
-        <v>0.03256044182282425</v>
+        <v>0.0322557365978941</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -493,10 +493,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1816091395810032</v>
+        <v>0.2153324879381195</v>
       </c>
       <c r="C4">
-        <v>0.0249439389055208</v>
+        <v>0.02467789659574678</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -507,10 +507,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.1684765329265055</v>
+        <v>0.2107236081603479</v>
       </c>
       <c r="C5">
-        <v>0.01946100845169576</v>
+        <v>0.01978891345168862</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.1022085591194406</v>
+        <v>-0.1605289713527344</v>
       </c>
       <c r="C6">
-        <v>0.01825645857835538</v>
+        <v>0.0187091805941642</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -535,10 +535,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.1646704101642181</v>
+        <v>0.1214344611538288</v>
       </c>
       <c r="C7">
-        <v>0.02571969804092165</v>
+        <v>0.02527298113413979</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.3321011160939922</v>
+        <v>0.1552945804704294</v>
       </c>
       <c r="C8">
-        <v>0.0411186769164796</v>
+        <v>0.03835495071392868</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -563,10 +563,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.1988630064615288</v>
+        <v>0.01876806470143536</v>
       </c>
       <c r="C9">
-        <v>0.03625038990203491</v>
+        <v>0.0346468974920307</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -577,10 +577,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.0002746623531621905</v>
+        <v>0.007243766306446096</v>
       </c>
       <c r="C10">
-        <v>0.01852974534150989</v>
+        <v>0.0177493922338691</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -591,10 +591,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.008726236332997185</v>
+        <v>-0.003478457820679341</v>
       </c>
       <c r="C11">
-        <v>0.003087949589009479</v>
+        <v>0.003118058373446621</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -605,10 +605,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.04752429600356082</v>
+        <v>-0.04688881657901796</v>
       </c>
       <c r="C12">
-        <v>0.02961105045144492</v>
+        <v>0.02873889920866431</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1.471978661818905</v>
+        <v>1.296450326227905</v>
       </c>
       <c r="C13">
-        <v>0.03928497626888004</v>
+        <v>0.03968274866509786</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -633,10 +633,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.8874726017468137</v>
+        <v>0.7641090420351814</v>
       </c>
       <c r="C14">
-        <v>0.024886576937732</v>
+        <v>0.02489384532840585</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -647,10 +647,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.6607901365763093</v>
+        <v>-0.6679024754215378</v>
       </c>
       <c r="C15">
-        <v>0.0113714583381583</v>
+        <v>0.01166956523224256</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -661,10 +661,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.09299488792138606</v>
+        <v>0.1005939327656781</v>
       </c>
       <c r="C16">
-        <v>0.1885802733324104</v>
+        <v>0.183278531850613</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -675,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>-4.105199856471496</v>
+        <v>-4.075150372687427</v>
       </c>
       <c r="C17">
-        <v>0.03035189325074151</v>
+        <v>0.03088520188668117</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -689,10 +689,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>-1.954816788223355</v>
+        <v>-1.893627442948342</v>
       </c>
       <c r="C18">
-        <v>0.04127826348536705</v>
+        <v>0.03746482196051524</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -703,10 +703,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>2.747523850874262</v>
+        <v>2.661690925513989</v>
       </c>
       <c r="C19">
-        <v>0.1966140062107044</v>
+        <v>0.1928303408137422</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -728,10 +728,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.4031735719322876</v>
+        <v>0.4911118323682511</v>
       </c>
       <c r="C21">
-        <v>0.1225457419254427</v>
+        <v>0.1190788603652066</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -742,10 +742,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>-1.402436664620217</v>
+        <v>-1.297206605785251</v>
       </c>
       <c r="C22">
-        <v>0.1280464775829258</v>
+        <v>0.1247598773075165</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
